--- a/Impact.xlsx
+++ b/Impact.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddhesh\Documents\Ruia\SEM VI\Mini Projects\DS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CE1789-87BD-4709-AD43-75816CDA82A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D7435-BEFA-4840-9C98-B365165FB357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -930,7 +930,7 @@
     <col min="19" max="24" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45683.537284421298</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>45683.572957245371</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45683.624772118055</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>45683.698065254634</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45683.700242662038</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>45683.70087951389</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45683.833449375001</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>45683.83665232639</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45683.955883831019</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>45684.352557349535</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45684.354111574074</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>45684.492451863422</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45684.511817199076</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>45684.563661967593</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45685.353591932871</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>45685.357403136572</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>45685.89918842593</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>45686.31985028935</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45686.412040636569</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>45686.43806414352</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45686.460042696759</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>45686.460459548616</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45686.463014016204</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>45686.463034189816</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45686.490853784722</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>45686.504282256945</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45686.510322256945</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>45686.701046828704</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>45686.943906608794</v>
       </c>
